--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalCheck.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalCheck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="5265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random</t>
+    <t>random_register</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalCheck.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalCheck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random_register</t>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +432,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalCheck.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalCheck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="2355"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -440,7 +448,7 @@
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,13 +459,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -467,14 +478,17 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -484,7 +498,7 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalCheck.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/withdrawal/WithDrawalCheck.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="2355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="1800"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8888</t>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
